--- a/src/main/resources/report_template.xlsx
+++ b/src/main/resources/report_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projets\xiandu_report\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EF5B9C-A041-46ED-B9F8-28994B82E361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339A0DAB-E8C8-4B61-A95F-5E4094E9F4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B173DB5B-92B8-4A20-90FD-73EA5C58158D}</author>
-    <author>tc={DFFD1F0F-F455-42E7-A89E-5DE3E0A1B756}</author>
+    <author>tc={992EDAF2-AF67-4D91-83C0-B3CC98A4F206}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B173DB5B-92B8-4A20-90FD-73EA5C58158D}">
@@ -36,15 +36,15 @@
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
-    jx:area(lastCell="H1")</t>
+    jx:area(lastCell="I2")</t>
       </text>
     </comment>
-    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{DFFD1F0F-F455-42E7-A89E-5DE3E0A1B756}">
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{992EDAF2-AF67-4D91-83C0-B3CC98A4F206}">
       <text>
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
-    jx:each(items="reportItemList" var="reportItem" lastCell="H1")</t>
+    jx:each(items="reportItemList" var="reportItem" lastCell="I2")</t>
       </text>
     </comment>
   </commentList>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>订单编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,27 +86,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiver_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiver_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiver_city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiver_district</t>
+    <t>${reportItem.receiverName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.receiverState}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.receiverCity}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.receiverDistrict}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.productName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.productQty}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.orderId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.sku}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.logistic}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,12 +144,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -445,31 +455,30 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2020-08-09T02:41:31.17" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{B173DB5B-92B8-4A20-90FD-73EA5C58158D}">
-    <text>jx:area(lastCell="H1")</text>
+    <text>jx:area(lastCell="I2")</text>
   </threadedComment>
-  <threadedComment ref="A2" dT="2020-08-09T02:40:52.66" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{DFFD1F0F-F455-42E7-A89E-5DE3E0A1B756}">
-    <text>jx:each(items="reportItemList" var="reportItem" lastCell="H1")</text>
+  <threadedComment ref="A2" dT="2020-08-09T05:48:31.33" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{992EDAF2-AF67-4D91-83C0-B3CC98A4F206}">
+    <text>jx:each(items="reportItemList" var="reportItem" lastCell="I2")</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,27 +501,39 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/report_template.xlsx
+++ b/src/main/resources/report_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projets\xiandu_report\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xiandu\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339A0DAB-E8C8-4B61-A95F-5E4094E9F4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802837EF-B71E-42D9-935C-A8450C8488EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B173DB5B-92B8-4A20-90FD-73EA5C58158D}</author>
-    <author>tc={992EDAF2-AF67-4D91-83C0-B3CC98A4F206}</author>
+    <author>tc={AC1A4C4E-C792-4F76-94D9-EBD31541C2A6}</author>
+    <author>tc={08BCEEB7-F3B4-4963-B5C2-3E4DB282CDF1}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B173DB5B-92B8-4A20-90FD-73EA5C58158D}">
@@ -36,15 +37,24 @@
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
-    jx:area(lastCell="I2")</t>
+    jx:area(lastCell="O4")</t>
       </text>
     </comment>
-    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{992EDAF2-AF67-4D91-83C0-B3CC98A4F206}">
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{AC1A4C4E-C792-4F76-94D9-EBD31541C2A6}">
       <text>
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
-    jx:each(items="reportItemList" var="reportItem" lastCell="I2")</t>
+    jx:each(items="reportItemList" var="reportItem"  lastCell="O3")
+jx:if(condition="reportItem.orderId %2 != 0", lastCell="O2", areas=["A2:O2"])</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{08BCEEB7-F3B4-4963-B5C2-3E4DB282CDF1}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    jx:if(condition="reportItem.orderId %2 == 0", lastCell="O3", areas=["A3:O3"])</t>
       </text>
     </comment>
   </commentList>
@@ -52,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>订单编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,14 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${reportItem.receiverName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,27 +104,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${reportItem.orderId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.logistic}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换算数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.originalQty}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.convQty}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.productShortName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品全称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性全称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${reportItem.productName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${reportItem.productQty}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${reportItem.orderId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${reportItem.sku}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${reportItem.logistic}</t>
+    <t>${reportItem.skuName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.skuShortName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品 + 属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.skuRatio}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.skuShortName} ${reportItem.productShortName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.sellerMemo}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +203,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,8 +251,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,85 +543,183 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2020-08-09T02:41:31.17" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{B173DB5B-92B8-4A20-90FD-73EA5C58158D}">
-    <text>jx:area(lastCell="I2")</text>
+    <text>jx:area(lastCell="O4")</text>
   </threadedComment>
-  <threadedComment ref="A2" dT="2020-08-09T05:48:31.33" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{992EDAF2-AF67-4D91-83C0-B3CC98A4F206}">
-    <text>jx:each(items="reportItemList" var="reportItem" lastCell="I2")</text>
+  <threadedComment ref="A2" dT="2020-08-09T05:48:31.33" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{AC1A4C4E-C792-4F76-94D9-EBD31541C2A6}">
+    <text>jx:each(items="reportItemList" var="reportItem"  lastCell="O3")
+jx:if(condition="reportItem.orderId %2 != 0", lastCell="O2", areas=["A2:O2"])</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2020-08-09T05:48:31.33" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{08BCEEB7-F3B4-4963-B5C2-3E4DB282CDF1}">
+    <text>jx:if(condition="reportItem.orderId %2 == 0", lastCell="O3", areas=["A3:O3"])</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O3" sqref="A1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46" customWidth="1"/>
-    <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="52.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="37.21875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="L3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/report_template.xlsx
+++ b/src/main/resources/report_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xiandu\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802837EF-B71E-42D9-935C-A8450C8488EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED2C382-6B54-4FE6-887E-988F0C055CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="网店订单" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,6 +30,8 @@
     <author>tc={B173DB5B-92B8-4A20-90FD-73EA5C58158D}</author>
     <author>tc={AC1A4C4E-C792-4F76-94D9-EBD31541C2A6}</author>
     <author>tc={08BCEEB7-F3B4-4963-B5C2-3E4DB282CDF1}</author>
+    <author>tc={E2716C80-76C0-4E68-BD55-5229A8B28A77}</author>
+    <author>tc={7C37CAFA-05F3-4FCE-B0C2-60C84E0ABCB5}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B173DB5B-92B8-4A20-90FD-73EA5C58158D}">
@@ -37,7 +39,7 @@
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
-    jx:area(lastCell="O4")</t>
+    jx:area(lastCell="P5")</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{AC1A4C4E-C792-4F76-94D9-EBD31541C2A6}">
@@ -45,8 +47,8 @@
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
-    jx:each(items="reportItemList" var="reportItem"  lastCell="O3")
-jx:if(condition="reportItem.orderId %2 != 0", lastCell="O2", areas=["A2:O2"])</t>
+    jx:each(items="reportItemList" var="reportItem"  lastCell="P3")
+jx:if(condition="reportItem.orderId %2 != 0", lastCell="P2", areas=["A2:P2"])</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{08BCEEB7-F3B4-4963-B5C2-3E4DB282CDF1}">
@@ -54,7 +56,24 @@
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
-    jx:if(condition="reportItem.orderId %2 == 0", lastCell="O3", areas=["A3:O3"])</t>
+    jx:if(condition="reportItem.orderId %2 == 0", lastCell="P3", areas=["A3:P3"])</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{E2716C80-76C0-4E68-BD55-5229A8B28A77}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    jx:each(items="reportItemList1" var="reportItem"  lastCell="P5")
+jx:if(condition="reportItem.orderId %2 != 0", lastCell="P4", areas=["A4:P4"])</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{7C37CAFA-05F3-4FCE-B0C2-60C84E0ABCB5}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    jx:if(condition="reportItem.orderId %2 == 0", lastCell="P5", areas=["A5:P5"])</t>
       </text>
     </comment>
   </commentList>
@@ -62,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>订单编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,15 +191,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${reportItem.skuShortName} ${reportItem.productShortName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${reportItem.sellerMemo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${reportItem.skuShortName}${reportItem.productShortName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,183 +566,299 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2020-08-09T02:41:31.17" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{B173DB5B-92B8-4A20-90FD-73EA5C58158D}">
-    <text>jx:area(lastCell="O4")</text>
+    <text>jx:area(lastCell="P5")</text>
   </threadedComment>
   <threadedComment ref="A2" dT="2020-08-09T05:48:31.33" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{AC1A4C4E-C792-4F76-94D9-EBD31541C2A6}">
-    <text>jx:each(items="reportItemList" var="reportItem"  lastCell="O3")
-jx:if(condition="reportItem.orderId %2 != 0", lastCell="O2", areas=["A2:O2"])</text>
+    <text>jx:each(items="reportItemList" var="reportItem"  lastCell="P3")
+jx:if(condition="reportItem.orderId %2 != 0", lastCell="P2", areas=["A2:P2"])</text>
   </threadedComment>
   <threadedComment ref="A3" dT="2020-08-09T05:48:31.33" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{08BCEEB7-F3B4-4963-B5C2-3E4DB282CDF1}">
-    <text>jx:if(condition="reportItem.orderId %2 == 0", lastCell="O3", areas=["A3:O3"])</text>
+    <text>jx:if(condition="reportItem.orderId %2 == 0", lastCell="P3", areas=["A3:P3"])</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2020-08-09T05:48:31.33" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{E2716C80-76C0-4E68-BD55-5229A8B28A77}">
+    <text>jx:each(items="reportItemList1" var="reportItem"  lastCell="P5")
+jx:if(condition="reportItem.orderId %2 != 0", lastCell="P4", areas=["A4:P4"])</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2020-08-09T05:48:31.33" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{7C37CAFA-05F3-4FCE-B0C2-60C84E0ABCB5}">
+    <text>jx:if(condition="reportItem.orderId %2 == 0", lastCell="P5", areas=["A5:P5"])</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="A1:O3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="52.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="37.21875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5546875" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.21875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5546875" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="N3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="O4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="N5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>29</v>
+      <c r="P5" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/report_template.xlsx
+++ b/src/main/resources/report_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xiandu\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xiandu\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED2C382-6B54-4FE6-887E-988F0C055CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F1F6E1D-3B47-4A13-9584-B6A7D02FE11A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="网店订单" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +34,8 @@
     <author>tc={08BCEEB7-F3B4-4963-B5C2-3E4DB282CDF1}</author>
     <author>tc={E2716C80-76C0-4E68-BD55-5229A8B28A77}</author>
     <author>tc={7C37CAFA-05F3-4FCE-B0C2-60C84E0ABCB5}</author>
+    <author>tc={14B15E03-A46F-4C34-8518-DF6E2649FD28}</author>
+    <author>tc={AF115BAB-F056-471F-A097-34F87FE19E3A}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B173DB5B-92B8-4A20-90FD-73EA5C58158D}">
@@ -39,7 +43,7 @@
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
-    jx:area(lastCell="P5")</t>
+    jx:area(lastCell="P7")</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{AC1A4C4E-C792-4F76-94D9-EBD31541C2A6}">
@@ -47,7 +51,7 @@
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
-    jx:each(items="reportItemList" var="reportItem"  lastCell="P3")
+    jx:each(items="reportItemList1" var="reportItem"  lastCell="P3")
 jx:if(condition="reportItem.orderId %2 != 0", lastCell="P2", areas=["A2:P2"])</t>
       </text>
     </comment>
@@ -64,7 +68,7 @@
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
-    jx:each(items="reportItemList1" var="reportItem"  lastCell="P5")
+    jx:each(items="reportItemList2" var="reportItem"  lastCell="P5")
 jx:if(condition="reportItem.orderId %2 != 0", lastCell="P4", areas=["A4:P4"])</t>
       </text>
     </comment>
@@ -76,12 +80,29 @@
     jx:if(condition="reportItem.orderId %2 == 0", lastCell="P5", areas=["A5:P5"])</t>
       </text>
     </comment>
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{14B15E03-A46F-4C34-8518-DF6E2649FD28}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    jx:each(items="reportItemList4" var="reportItem"  lastCell="P7")
+jx:if(condition="reportItem.orderId %2 != 0", lastCell="P6", areas=["A6:P6"])</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{AF115BAB-F056-471F-A097-34F87FE19E3A}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    jx:if(condition="reportItem.orderId %2 == 0", lastCell="P7", areas=["A7:P7"])</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="31">
   <si>
     <t>订单编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,32 +587,37 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2020-08-09T02:41:31.17" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{B173DB5B-92B8-4A20-90FD-73EA5C58158D}">
-    <text>jx:area(lastCell="P5")</text>
+    <text>jx:area(lastCell="P7")</text>
   </threadedComment>
   <threadedComment ref="A2" dT="2020-08-09T05:48:31.33" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{AC1A4C4E-C792-4F76-94D9-EBD31541C2A6}">
-    <text>jx:each(items="reportItemList" var="reportItem"  lastCell="P3")
+    <text>jx:each(items="reportItemList1" var="reportItem"  lastCell="P3")
 jx:if(condition="reportItem.orderId %2 != 0", lastCell="P2", areas=["A2:P2"])</text>
   </threadedComment>
   <threadedComment ref="A3" dT="2020-08-09T05:48:31.33" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{08BCEEB7-F3B4-4963-B5C2-3E4DB282CDF1}">
     <text>jx:if(condition="reportItem.orderId %2 == 0", lastCell="P3", areas=["A3:P3"])</text>
   </threadedComment>
   <threadedComment ref="A4" dT="2020-08-09T05:48:31.33" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{E2716C80-76C0-4E68-BD55-5229A8B28A77}">
-    <text>jx:each(items="reportItemList1" var="reportItem"  lastCell="P5")
+    <text>jx:each(items="reportItemList2" var="reportItem"  lastCell="P5")
 jx:if(condition="reportItem.orderId %2 != 0", lastCell="P4", areas=["A4:P4"])</text>
   </threadedComment>
   <threadedComment ref="A5" dT="2020-08-09T05:48:31.33" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{7C37CAFA-05F3-4FCE-B0C2-60C84E0ABCB5}">
     <text>jx:if(condition="reportItem.orderId %2 == 0", lastCell="P5", areas=["A5:P5"])</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2020-08-09T05:48:31.33" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{14B15E03-A46F-4C34-8518-DF6E2649FD28}">
+    <text>jx:each(items="reportItemList4" var="reportItem"  lastCell="P7")
+jx:if(condition="reportItem.orderId %2 != 0", lastCell="P6", areas=["A6:P6"])</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2020-08-09T05:48:31.33" personId="{9E067807-AA74-4562-81CE-97DCA8187635}" id="{AF115BAB-F056-471F-A097-34F87FE19E3A}">
+    <text>jx:if(condition="reportItem.orderId %2 == 0", lastCell="P7", areas=["A7:P7"])</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -861,6 +887,106 @@
         <v>28</v>
       </c>
     </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
